--- a/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_ecol.xlsx
+++ b/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_ecol.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{811E252F-A348-B14F-961D-AAB88FB3B8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E6DDE-B326-CC49-AE20-83A522733153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{EBFF0997-54CA-954A-8199-C67D00E29D5E}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{EBFF0997-54CA-954A-8199-C67D00E29D5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="merged_filt_ecol" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="merged_filt_spe" localSheetId="0">Sheet1!$A$1:$E$20</definedName>
+    <definedName name="merged_filt_spe" localSheetId="0">merged_filt_ecol!$A$1:$H$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +35,11 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{8F0435E8-6D9F-284F-AA44-0E276C8EF9D2}" name="merged_filt_spe" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_spe.txt" space="1" consecutive="1">
-      <textFields count="6">
+  <connection id="1" xr16:uid="{73335C9E-85AF-9040-859C-BF4879F27299}" name="merged_filt_spe1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_spe.txt" space="1" consecutive="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
         <textField/>
         <textField/>
         <textField/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>otu.name</t>
   </si>
@@ -128,19 +130,76 @@
     <t>Ecol</t>
   </si>
   <si>
-    <t>Ecol_2</t>
-  </si>
-  <si>
-    <t>Symbiont</t>
-  </si>
-  <si>
-    <t>Obligate</t>
-  </si>
-  <si>
-    <t>Facultative</t>
-  </si>
-  <si>
     <t>Transient</t>
+  </si>
+  <si>
+    <t>percentile_toad</t>
+  </si>
+  <si>
+    <t>percentile_env</t>
+  </si>
+  <si>
+    <t>tax.id</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Filobasidiales.unidentified.unidentified.unidentified</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Arthoniomycetes.Lichenostigmatales.Phaeococcomycetaceae.Phaeococcomyces.Phaeococcomyces_mexicanus</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.Aureobasidiaceae.Aureobasidium.Aureobasidium_pullulans</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.Cladosporiaceae.Cladosporium.Cladosporium_delicatulum</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Dothideales.Dothioraceae.unidentified.unidentified</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Pleosporales.Phaeosphaeriaceae.Phaeosphaeria.NA</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Capnodiales.Mycosphaerellaceae.Mycosphaerella.Mycosphaerella_tassiana</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Helotiaceae.Mycofalcella.Mycofalcella_calcarata</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Dothideomycetes.Venturiales.Venturiaceae.Venturia.Venturia_inaequalis</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Leotiaceae.Neobulgaria.Neobulgaria_pura</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Helotiales.Hyaloscyphaceae.Pezizella.Pezizella_epithallina</t>
+  </si>
+  <si>
+    <t>Fungi.Rozellomycota.unidentified.unidentified.unidentified.unidentified.unidentified</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Pseudeurotiaceae.Geomyces.unidentified</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Leotiomycetes.Thelebolales.Pseudeurotiaceae.Pseudeurotium.Pseudeurotium_hygrophilum</t>
+  </si>
+  <si>
+    <t>Fungi.Ascomycota.Sordariomycetes.Hypocreales.unidentified.unidentified.unidentified</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Tremellomycetes.Filobasidiales.Piskurozymaceae.Solicoccozyma.Solicoccozyma_terricola</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Microbotryomycetes.Kriegeriales.Kriegeriaceae.Kriegeria.Kriegeria_eriophori</t>
+  </si>
+  <si>
+    <t>Fungi.Basidiomycota.Agaricomycetes.Agaricales.Inocybaceae.Inocybe.Inocybe_curvipes</t>
+  </si>
+  <si>
+    <t>Fungi.Mortierellomycota.Mortierellomycetes.Mortierellales.Mortierellaceae.Mortierella.unidentified</t>
+  </si>
+  <si>
+    <t>Symbiotic</t>
   </si>
 </sst>
 </file>
@@ -196,7 +255,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="merged_filt_spe" connectionId="1" xr16:uid="{195A21D4-7C74-D44B-BEAE-FCCCD14815A3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="merged_filt_spe" connectionId="1" xr16:uid="{ACE0EFB3-5347-2046-9CFA-5AE626615E49}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -495,483 +554,609 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C26234-F5DD-3749-ADF6-E3FD9FED8D3C}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1ED64-3170-8343-861F-F41E2FFC952C}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.5" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>19.354838709677399</v>
+      </c>
+      <c r="D2">
+        <v>6.25</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>167</v>
+      </c>
+      <c r="G2">
+        <v>3.515625E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.326171875</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>67.741935483871003</v>
+      </c>
+      <c r="D3">
+        <v>31.25</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="H3">
+        <v>2.34375E-2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
         <v>83.870967741935502</v>
       </c>
-      <c r="C2">
+      <c r="D4">
         <v>79.1666666666667</v>
       </c>
-      <c r="D2">
-        <v>512</v>
-      </c>
-      <c r="E2">
-        <v>512</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="H4">
+        <v>1.953125E-3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>37.903225806451601</v>
+      </c>
+      <c r="D5">
+        <v>16.6666666666667</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="H5">
+        <v>8.203125E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>16.935483870967701</v>
+      </c>
+      <c r="D6">
+        <v>2.0833333333333299</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>467</v>
+      </c>
+      <c r="G6">
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="H6">
+        <v>0.912109375</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>20.161290322580601</v>
+      </c>
+      <c r="D7">
+        <v>4.1666666666666696</v>
+      </c>
+      <c r="E7">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>295</v>
+      </c>
+      <c r="G7">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H7">
+        <v>0.576171875</v>
+      </c>
+      <c r="I7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>6.4516129032258096</v>
+      </c>
+      <c r="D8">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="E8">
+        <v>94</v>
+      </c>
+      <c r="F8">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>0.18359375</v>
+      </c>
+      <c r="H8">
+        <v>2.734375E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9">
         <v>11.290322580645199</v>
       </c>
-      <c r="C3">
+      <c r="D9">
         <v>31.25</v>
       </c>
-      <c r="D3">
-        <v>470</v>
-      </c>
-      <c r="E3">
-        <v>500</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9">
+        <v>7.2265625E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>30.645161290322601</v>
+      </c>
+      <c r="D10">
+        <v>60.4166666666667</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>1.171875E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11">
+        <v>8.8709677419354804</v>
+      </c>
+      <c r="D11">
+        <v>33.3333333333333</v>
+      </c>
+      <c r="E11">
+        <v>63</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="B4">
-        <v>6.4516129032258096</v>
-      </c>
-      <c r="C4">
+      <c r="G11">
+        <v>0.123046875</v>
+      </c>
+      <c r="H11">
+        <v>1.3671875E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>8.8709677419354804</v>
+      </c>
+      <c r="D12">
         <v>29.1666666666667</v>
       </c>
-      <c r="D4">
-        <v>407</v>
-      </c>
-      <c r="E4">
-        <v>496</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>19.354838709677399</v>
-      </c>
-      <c r="C5">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="D5">
-        <v>495</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E12">
+        <v>67</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>0.130859375</v>
+      </c>
+      <c r="H12">
+        <v>3.125E-2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>18.548387096774199</v>
+      </c>
+      <c r="D13">
+        <v>54.1666666666667</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>3.7109375E-2</v>
+      </c>
+      <c r="H13">
+        <v>5.859375E-3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>14.5161290322581</v>
+      </c>
+      <c r="D14">
+        <v>31.25</v>
+      </c>
+      <c r="E14">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>19.354838709677399</v>
-      </c>
-      <c r="C6">
-        <v>6.25</v>
-      </c>
-      <c r="D6">
-        <v>496</v>
-      </c>
-      <c r="E6">
-        <v>301</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>8.8709677419354804</v>
-      </c>
-      <c r="C7">
-        <v>33.3333333333333</v>
-      </c>
-      <c r="D7">
-        <v>448</v>
-      </c>
-      <c r="E7">
-        <v>505</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>37.903225806451601</v>
-      </c>
-      <c r="C8">
-        <v>16.6666666666667</v>
-      </c>
-      <c r="D8">
-        <v>509</v>
-      </c>
-      <c r="E8">
-        <v>466</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>30.645161290322601</v>
-      </c>
-      <c r="C9">
-        <v>60.4166666666667</v>
-      </c>
-      <c r="D9">
-        <v>507</v>
-      </c>
-      <c r="E9">
-        <v>511</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="F14">
         <v>13</v>
       </c>
-      <c r="B10">
-        <v>24.193548387096801</v>
-      </c>
-      <c r="C10">
-        <v>45.8333333333333</v>
-      </c>
-      <c r="D10">
-        <v>504</v>
-      </c>
-      <c r="E10">
-        <v>508</v>
-      </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>67.741935483871003</v>
-      </c>
-      <c r="C11">
-        <v>31.25</v>
-      </c>
-      <c r="D11">
-        <v>511</v>
-      </c>
-      <c r="E11">
-        <v>503</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>16.935483870967701</v>
-      </c>
-      <c r="C12">
-        <v>2.0833333333333299</v>
-      </c>
-      <c r="D12">
-        <v>492</v>
-      </c>
-      <c r="E12">
-        <v>159</v>
-      </c>
-      <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>20.161290322580601</v>
-      </c>
-      <c r="C13">
-        <v>4.1666666666666696</v>
-      </c>
-      <c r="D13">
-        <v>498</v>
-      </c>
-      <c r="E13">
-        <v>274</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="G14">
+        <v>5.2734375E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.5390625E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>4.8387096774193497</v>
+      </c>
+      <c r="D15">
+        <v>29.1666666666667</v>
+      </c>
+      <c r="E15">
+        <v>147</v>
+      </c>
+      <c r="F15">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>8.8709677419354804</v>
-      </c>
-      <c r="C14">
-        <v>29.1666666666667</v>
-      </c>
-      <c r="D14">
-        <v>452</v>
-      </c>
-      <c r="E14">
-        <v>498</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>18.548387096774199</v>
-      </c>
-      <c r="C15">
-        <v>54.1666666666667</v>
-      </c>
-      <c r="D15">
-        <v>494</v>
-      </c>
-      <c r="E15">
-        <v>510</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0.287109375</v>
+      </c>
+      <c r="H15">
+        <v>3.3203125E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>14.5161290322581</v>
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>31.25</v>
+        <v>8.0645161290322598</v>
       </c>
       <c r="D16">
-        <v>488</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>504</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <v>25</v>
+      </c>
+      <c r="G16">
+        <v>0.158203125</v>
+      </c>
+      <c r="H16">
+        <v>4.8828125E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17">
         <v>10.4838709677419</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>27.0833333333333</v>
       </c>
-      <c r="D17">
-        <v>469</v>
-      </c>
       <c r="E17">
-        <v>495</v>
-      </c>
-      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>9.9609375E-2</v>
+      </c>
+      <c r="H17">
+        <v>4.1015625E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>8.0645161290322598</v>
-      </c>
       <c r="C18">
-        <v>25</v>
+        <v>19.354838709677399</v>
       </c>
       <c r="D18">
-        <v>445</v>
+        <v>2.0833333333333299</v>
       </c>
       <c r="E18">
-        <v>491</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <v>347</v>
+      </c>
+      <c r="G18">
+        <v>3.3203125E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.677734375</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>4.8387096774193497</v>
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>29.1666666666667</v>
+        <v>7.2580645161290303</v>
       </c>
       <c r="D19">
-        <v>385</v>
+        <v>45.8333333333333</v>
       </c>
       <c r="E19">
-        <v>499</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>0.177734375</v>
+      </c>
+      <c r="H19">
+        <v>9.765625E-3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>7.2580645161290303</v>
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
       <c r="C20">
+        <v>24.193548387096801</v>
+      </c>
+      <c r="D20">
         <v>45.8333333333333</v>
       </c>
-      <c r="D20">
-        <v>431</v>
-      </c>
       <c r="E20">
-        <v>509</v>
-      </c>
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>1.7578125E-2</v>
+      </c>
+      <c r="H20">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I20">
+    <sortCondition ref="B2:B20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_ecol.xlsx
+++ b/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/merged_filt_ecol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alal3493/Documents/Projects/DevelopmentalBorealToad/FungalDevData/02_PublishedAnalysis/Figs_Tables/Symbionts_fig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E6DDE-B326-CC49-AE20-83A522733153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C7D979-768A-6C41-96A6-3F6F032D29E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{EBFF0997-54CA-954A-8199-C67D00E29D5E}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25040" windowHeight="13740" xr2:uid="{EBFF0997-54CA-954A-8199-C67D00E29D5E}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_filt_ecol" sheetId="2" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E1ED64-3170-8343-861F-F41E2FFC952C}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>1.953125E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
